--- a/assets/csvs/asian_1_quantlib_asian_arithmetic_monte_carlof_comparision.xlsx
+++ b/assets/csvs/asian_1_quantlib_asian_arithmetic_monte_carlof_comparision.xlsx
@@ -487,28 +487,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.606206893920898</v>
+        <v>0.003233456518501043</v>
       </c>
       <c r="C2" t="n">
-        <v>3.786465883255005</v>
+        <v>0.02121505700051785</v>
       </c>
       <c r="D2" t="n">
-        <v>6.19747257232666</v>
+        <v>0.02210268564522266</v>
       </c>
       <c r="E2" t="n">
-        <v>7.048820495605469</v>
+        <v>0.04004881531000137</v>
       </c>
       <c r="F2" t="n">
-        <v>7.048820495605469</v>
+        <v>0.04655468463897705</v>
       </c>
       <c r="G2" t="n">
-        <v>4.801488399505615</v>
+        <v>0.01951632276177406</v>
       </c>
       <c r="H2" t="n">
-        <v>7.048820495605469</v>
+        <v>0.04655468463897705</v>
       </c>
       <c r="I2" t="n">
-        <v>1.80187201499939</v>
+        <v>4.463342666625977</v>
       </c>
     </row>
     <row r="3">
@@ -518,28 +518,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1.449222564697266</v>
+        <v>0.002887730486690998</v>
       </c>
       <c r="C3" t="n">
-        <v>3.289880275726318</v>
+        <v>0.02124522067606449</v>
       </c>
       <c r="D3" t="n">
-        <v>5.414427757263184</v>
+        <v>0.02322732843458652</v>
       </c>
       <c r="E3" t="n">
-        <v>7.017494201660156</v>
+        <v>0.03431600332260132</v>
       </c>
       <c r="F3" t="n">
-        <v>7.017494201660156</v>
+        <v>0.04034066200256348</v>
       </c>
       <c r="G3" t="n">
-        <v>4.483406066894531</v>
+        <v>0.01982267200946808</v>
       </c>
       <c r="H3" t="n">
-        <v>7.017494201660156</v>
+        <v>0.04034066200256348</v>
       </c>
       <c r="I3" t="n">
-        <v>1.964191317558289</v>
+        <v>4.409448146820068</v>
       </c>
     </row>
   </sheetData>
